--- a/Test Execution/Preethi/OP.xlsx
+++ b/Test Execution/Preethi/OP.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20055" windowHeight="7185"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="275">
   <si>
     <t>Reserved Status</t>
   </si>
@@ -24,12 +24,12 @@
     <t>Arrived status</t>
   </si>
   <si>
+    <t>standby in reserved status</t>
+  </si>
+  <si>
     <t>standby in arrived status</t>
   </si>
   <si>
-    <t>standby in reserved status</t>
-  </si>
-  <si>
     <t>Adding insurance and icon in info</t>
   </si>
   <si>
@@ -103,6 +103,744 @@
   </si>
   <si>
     <t>Old registration based on file type</t>
+  </si>
+  <si>
+    <t>cng of pendng req in op</t>
+  </si>
+  <si>
+    <t>Doctor reference</t>
+  </si>
+  <si>
+    <t>Add Polcy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manage Appointment </t>
+  </si>
+  <si>
+    <t>selectng counter</t>
+  </si>
+  <si>
+    <t>Attachng fle n nsurance-op vst</t>
+  </si>
+  <si>
+    <t>medcal record n add polcy</t>
+  </si>
+  <si>
+    <t>lab result n polcy</t>
+  </si>
+  <si>
+    <t>radology result n add polcy</t>
+  </si>
+  <si>
+    <t>prevous blls n add polcy</t>
+  </si>
+  <si>
+    <t>polcy from add polcy</t>
+  </si>
+  <si>
+    <t>current p -add polcy</t>
+  </si>
+  <si>
+    <t>barcode prnt</t>
+  </si>
+  <si>
+    <t>patent card prnt</t>
+  </si>
+  <si>
+    <t>cancellng appotmt</t>
+  </si>
+  <si>
+    <t>appontment lst vew</t>
+  </si>
+  <si>
+    <t>new regstraton based on patent vst</t>
+  </si>
+  <si>
+    <t>new regstraton based on constructon type</t>
+  </si>
+  <si>
+    <t>new regstraton based on nsurance</t>
+  </si>
+  <si>
+    <t>new regstraton based on emergency</t>
+  </si>
+  <si>
+    <t>new regstraton based on MLC</t>
+  </si>
+  <si>
+    <t>new reg based on forenr=er</t>
+  </si>
+  <si>
+    <t>doc attach n new regstraton</t>
+  </si>
+  <si>
+    <t>deleting attached doc in insurance</t>
+  </si>
+  <si>
+    <t>assigning consultation room</t>
+  </si>
+  <si>
+    <t>Adv transfer &gt; bal amount</t>
+  </si>
+  <si>
+    <t>Adv transfer &lt; bal amount</t>
+  </si>
+  <si>
+    <t>advance cash transfer</t>
+  </si>
+  <si>
+    <t>advance cheque or bank  transfer</t>
+  </si>
+  <si>
+    <t>advance credit</t>
+  </si>
+  <si>
+    <t>advance cash &amp; check transfer</t>
+  </si>
+  <si>
+    <t>advance cash &amp; debit transfer</t>
+  </si>
+  <si>
+    <t>advance cash &amp;credit</t>
+  </si>
+  <si>
+    <t>credit valid cvv</t>
+  </si>
+  <si>
+    <t>credit in calid cvv</t>
+  </si>
+  <si>
+    <t>credit based on expiry date</t>
+  </si>
+  <si>
+    <t>advance-op,ip,billing pahrmacy</t>
+  </si>
+  <si>
+    <t>advance -OP pharmacy</t>
+  </si>
+  <si>
+    <t>advance-OP,Billing</t>
+  </si>
+  <si>
+    <t>advance-OP,IP</t>
+  </si>
+  <si>
+    <t>advance-OP</t>
+  </si>
+  <si>
+    <t>advance-IP</t>
+  </si>
+  <si>
+    <t>advance-Billing</t>
+  </si>
+  <si>
+    <t>advance-pharmacy</t>
+  </si>
+  <si>
+    <t>advance-billing &amp; pharmacy</t>
+  </si>
+  <si>
+    <t>advance-billing &amp; IP</t>
+  </si>
+  <si>
+    <t>advance-Pharmacy &amp; IP</t>
+  </si>
+  <si>
+    <t>"advance collected" in advance entry</t>
+  </si>
+  <si>
+    <t>Advance search by number</t>
+  </si>
+  <si>
+    <t>Patient Name search in Advance entry</t>
+  </si>
+  <si>
+    <t>patient id search in ad</t>
+  </si>
+  <si>
+    <t>advance entry search by date</t>
+  </si>
+  <si>
+    <t>print in advance entry</t>
+  </si>
+  <si>
+    <t>delete in Advance entry</t>
+  </si>
+  <si>
+    <t>delete and then cancel entry</t>
+  </si>
+  <si>
+    <t>transaction based on swipping machine</t>
+  </si>
+  <si>
+    <t>search by enter in patient number in consolidate op billing</t>
+  </si>
+  <si>
+    <t>adding OP Bills in Consolidate OP Billing</t>
+  </si>
+  <si>
+    <t>generate bill</t>
+  </si>
+  <si>
+    <t>op bill without discount</t>
+  </si>
+  <si>
+    <t>op bill with discount</t>
+  </si>
+  <si>
+    <t>Delete item in OP Bill</t>
+  </si>
+  <si>
+    <t>Add LRO bill</t>
+  </si>
+  <si>
+    <t>Edit LRO Bill</t>
+  </si>
+  <si>
+    <t>Delete item in LRO Bill</t>
+  </si>
+  <si>
+    <t>Discount in LRO Bill</t>
+  </si>
+  <si>
+    <t>adding remarks in LRO Bills</t>
+  </si>
+  <si>
+    <t>Add Common Procedures in LRO Bill</t>
+  </si>
+  <si>
+    <t>Package in LRO Bill</t>
+  </si>
+  <si>
+    <t>Package in LRO Bill without discount</t>
+  </si>
+  <si>
+    <t>Package in LRO Bill with discount</t>
+  </si>
+  <si>
+    <t>Edit LRO Bill based on Package</t>
+  </si>
+  <si>
+    <t>Delete item in LRO Bill based on Package</t>
+  </si>
+  <si>
+    <t>Adding LRO Bill based on Package for insured patients</t>
+  </si>
+  <si>
+    <t>Editing LRO Bill based on PAckage for insured Patients</t>
+  </si>
+  <si>
+    <t>Adding common Procedures for insured patients in LRO Bill</t>
+  </si>
+  <si>
+    <t>Edit common procedure for LRO Bills</t>
+  </si>
+  <si>
+    <t>Pharmacy bills based on sales unit</t>
+  </si>
+  <si>
+    <t>Delete row in Pharmacy bills based on sales unit</t>
+  </si>
+  <si>
+    <t>Adding pharmacy bills for insured patients</t>
+  </si>
+  <si>
+    <t>Adding pharmacy bill having qty greater than stock</t>
+  </si>
+  <si>
+    <t>pharmacy bill tax applicable</t>
+  </si>
+  <si>
+    <t>surgery bill based on surgery plan type</t>
+  </si>
+  <si>
+    <t>Adding scrub nurses in the surgery</t>
+  </si>
+  <si>
+    <t>Deleting scrub nurses</t>
+  </si>
+  <si>
+    <t>Adding circulatory nurses</t>
+  </si>
+  <si>
+    <t>Deleting circulatory nurses</t>
+  </si>
+  <si>
+    <t>Adding other staff in surgery</t>
+  </si>
+  <si>
+    <t>Deleting other staff in surgery</t>
+  </si>
+  <si>
+    <t>Adding Equipments in surgery</t>
+  </si>
+  <si>
+    <t>Deleting Equipments in surgery</t>
+  </si>
+  <si>
+    <t>Generate bill based on Payment mode-cash</t>
+  </si>
+  <si>
+    <t>Generate bill based on Payment mode-credit</t>
+  </si>
+  <si>
+    <t>Generate bill based on Payment mode-complimentary</t>
+  </si>
+  <si>
+    <t>Generate bill based on Payment mode-cheque/DD/Bank Transfer</t>
+  </si>
+  <si>
+    <t>Generate bill based on Payment mode-credit/debit card</t>
+  </si>
+  <si>
+    <t>Partial PAyment by Cash and Cheque/DD (Bank Transfer)</t>
+  </si>
+  <si>
+    <t>Partial PAyment by Cash and Cheque/DD (Gift Voucher)</t>
+  </si>
+  <si>
+    <t>Partial Payment by Cash and Credit Card</t>
+  </si>
+  <si>
+    <t>Partial Payment by Cheque and Credit Card</t>
+  </si>
+  <si>
+    <t>Summary Print in PArtial Payment</t>
+  </si>
+  <si>
+    <t>Detailed Print in PArtial Payment</t>
+  </si>
+  <si>
+    <t>Receipt print in Partial Payment</t>
+  </si>
+  <si>
+    <t>Refund search of a patient</t>
+  </si>
+  <si>
+    <t>Print in Search Refund</t>
+  </si>
+  <si>
+    <t>Delete in Search Refund</t>
+  </si>
+  <si>
+    <t>Generating refund based on bill typ cash</t>
+  </si>
+  <si>
+    <t>Refund amount is not greater than balance</t>
+  </si>
+  <si>
+    <t>Generating Refund based on cheque /DD</t>
+  </si>
+  <si>
+    <t>Refund based on credit</t>
+  </si>
+  <si>
+    <t>PAtient search in visit closing</t>
+  </si>
+  <si>
+    <t>PAtient search in visit closing by date</t>
+  </si>
+  <si>
+    <t>Visit close</t>
+  </si>
+  <si>
+    <t>Verify Pending bills b4 visit close</t>
+  </si>
+  <si>
+    <t>Verify Visit is closed</t>
+  </si>
+  <si>
+    <t>Reopening closed visit</t>
+  </si>
+  <si>
+    <t>Search with Advance no: in Refund</t>
+  </si>
+  <si>
+    <t>Refund search with search fields</t>
+  </si>
+  <si>
+    <t>View Package details</t>
+  </si>
+  <si>
+    <t>Approving Package(**PEnding Status)</t>
+  </si>
+  <si>
+    <t>Approving Package(Completed Status)</t>
+  </si>
+  <si>
+    <t>Approving (*PEnding to Completed)</t>
+  </si>
+  <si>
+    <t>Search Bill no: with packages</t>
+  </si>
+  <si>
+    <t>Adding OT Procedure in surgery</t>
+  </si>
+  <si>
+    <t>Adding Procedure bill</t>
+  </si>
+  <si>
+    <t>Adding Procedure bill with discount</t>
+  </si>
+  <si>
+    <t>Adding Procedure bill with discount &gt;100%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FTP File view </t>
+  </si>
+  <si>
+    <t>Deleting FTP File View</t>
+  </si>
+  <si>
+    <t>Print of uploaded file</t>
+  </si>
+  <si>
+    <t>search in uploaded file in FTP</t>
+  </si>
+  <si>
+    <t>Print image in file upload</t>
+  </si>
+  <si>
+    <t>Delete option in Procedure bill</t>
+  </si>
+  <si>
+    <t>Print in Procedure Bill</t>
+  </si>
+  <si>
+    <t>Search dues of a patient</t>
+  </si>
+  <si>
+    <t>Search in due collection by date</t>
+  </si>
+  <si>
+    <t>Print in Due collection</t>
+  </si>
+  <si>
+    <t>Settle patient due collection with amount zero</t>
+  </si>
+  <si>
+    <t>Summary print in due collection</t>
+  </si>
+  <si>
+    <t>Detailed print in due collection</t>
+  </si>
+  <si>
+    <t>Receipt print in due collection</t>
+  </si>
+  <si>
+    <t>Verify user details</t>
+  </si>
+  <si>
+    <t>Export user details</t>
+  </si>
+  <si>
+    <t>Search in user details</t>
+  </si>
+  <si>
+    <t>Print in user details</t>
+  </si>
+  <si>
+    <t>Mail in user details</t>
+  </si>
+  <si>
+    <t>PAtient search by registered date</t>
+  </si>
+  <si>
+    <t>Patient search by patient name</t>
+  </si>
+  <si>
+    <t>Edit in Patient search</t>
+  </si>
+  <si>
+    <t>Send message in patient</t>
+  </si>
+  <si>
+    <t>send message with low priority</t>
+  </si>
+  <si>
+    <t>send message with high priority</t>
+  </si>
+  <si>
+    <t>Print medical record</t>
+  </si>
+  <si>
+    <t>Sticker print in patient search</t>
+  </si>
+  <si>
+    <t>Delete patient message</t>
+  </si>
+  <si>
+    <t>Export patient search to excel</t>
+  </si>
+  <si>
+    <t>save patient msg</t>
+  </si>
+  <si>
+    <t>block in patien msg</t>
+  </si>
+  <si>
+    <t>Search patient in patient query</t>
+  </si>
+  <si>
+    <t>visit details in Patient query</t>
+  </si>
+  <si>
+    <t>Admission details in  Patient query</t>
+  </si>
+  <si>
+    <t>Deposit details on patient query</t>
+  </si>
+  <si>
+    <t>Bed Transfer in patient query</t>
+  </si>
+  <si>
+    <t>Discharge bill details</t>
+  </si>
+  <si>
+    <t>"select all" in Counter billing</t>
+  </si>
+  <si>
+    <t>Counter billing by payment type</t>
+  </si>
+  <si>
+    <t>pharmacy billing in patient query</t>
+  </si>
+  <si>
+    <t>Pharmacy billing with payment type cash</t>
+  </si>
+  <si>
+    <t>Pharmacy billing with payment type credit</t>
+  </si>
+  <si>
+    <t>Pharmacy billing with payment type complimentary</t>
+  </si>
+  <si>
+    <t>Patient type "IP" in Pharmacy billing</t>
+  </si>
+  <si>
+    <t>Payment type OP Credit in pharmacy bill in patient Query</t>
+  </si>
+  <si>
+    <t>View lab result in Patient Query</t>
+  </si>
+  <si>
+    <t>view billing in patient query</t>
+  </si>
+  <si>
+    <t>Advance Payment details in Patient query</t>
+  </si>
+  <si>
+    <t>Searching Patient wise visit</t>
+  </si>
+  <si>
+    <t>Search in listed patients in PAtient query</t>
+  </si>
+  <si>
+    <t>Insurance Approval Request-search patients</t>
+  </si>
+  <si>
+    <t>Insurance Approval Request-search patients-based on date</t>
+  </si>
+  <si>
+    <t>Investigation view in insured patients</t>
+  </si>
+  <si>
+    <t>Investigation view in insured patients-print</t>
+  </si>
+  <si>
+    <t>View CPT Description</t>
+  </si>
+  <si>
+    <t>Add item to list in Insurance Approval</t>
+  </si>
+  <si>
+    <t>Approving Advance in Insurance Approval</t>
+  </si>
+  <si>
+    <t>View lab result in Investigation</t>
+  </si>
+  <si>
+    <t>View Radiology result in Investigation</t>
+  </si>
+  <si>
+    <t>Print lab result in investigation</t>
+  </si>
+  <si>
+    <t>Clinical wise settings-OP PArameter</t>
+  </si>
+  <si>
+    <t>set other settings in op parameter</t>
+  </si>
+  <si>
+    <t>view patient info in add policy</t>
+  </si>
+  <si>
+    <t>view lab result in add policy</t>
+  </si>
+  <si>
+    <t>view lab result by type wise in add policy</t>
+  </si>
+  <si>
+    <t>view radiology result in add policy</t>
+  </si>
+  <si>
+    <t>View patient log in Add policy</t>
+  </si>
+  <si>
+    <t>Letters and certificates in add policy</t>
+  </si>
+  <si>
+    <t>Patient files in add policy</t>
+  </si>
+  <si>
+    <t>Multiple medical records in treatment summary</t>
+  </si>
+  <si>
+    <t>treatment summary in add policy</t>
+  </si>
+  <si>
+    <t>External Treatment summary in add policy</t>
+  </si>
+  <si>
+    <t>PAtient examination summary in add policy</t>
+  </si>
+  <si>
+    <t>Pateint msg in add policy</t>
+  </si>
+  <si>
+    <t>insurance approval status in insurance approval</t>
+  </si>
+  <si>
+    <t>Adding patient visit after search in OP</t>
+  </si>
+  <si>
+    <t>viewing medical record in OP</t>
+  </si>
+  <si>
+    <t>Printing Wrist Band  in OP</t>
+  </si>
+  <si>
+    <t>bill search</t>
+  </si>
+  <si>
+    <t>edit bill</t>
+  </si>
+  <si>
+    <t>printing bills in op</t>
+  </si>
+  <si>
+    <t>image upload from appointment list</t>
+  </si>
+  <si>
+    <t>select all in outpatient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search by bill number </t>
+  </si>
+  <si>
+    <t>Add OP from Out Patient</t>
+  </si>
+  <si>
+    <t>Add LRO Bill from Outpatient</t>
+  </si>
+  <si>
+    <t>Delete in procedure</t>
+  </si>
+  <si>
+    <t>Add pharmacy bill from  OP list</t>
+  </si>
+  <si>
+    <t>Surgery entry from OP list</t>
+  </si>
+  <si>
+    <t>Generate bill in OP</t>
+  </si>
+  <si>
+    <t>Chief surgeon in surgery in OP</t>
+  </si>
+  <si>
+    <t>Delete chief surgeon in OP</t>
+  </si>
+  <si>
+    <t>Billing without consultation</t>
+  </si>
+  <si>
+    <t>Addying scrub nurse in OP</t>
+  </si>
+  <si>
+    <t>Delete scrub nurse</t>
+  </si>
+  <si>
+    <t>delete circulatory nurse</t>
+  </si>
+  <si>
+    <t>Add circulatory nurse</t>
+  </si>
+  <si>
+    <t>Other staff in surgery in op</t>
+  </si>
+  <si>
+    <t>delete Other staff in surgery in op</t>
+  </si>
+  <si>
+    <t>add equipments</t>
+  </si>
+  <si>
+    <t>add OT Procedures in OP</t>
+  </si>
+  <si>
+    <t>add insurance in billing</t>
+  </si>
+  <si>
+    <t>clear insurace in "add insurance"</t>
+  </si>
+  <si>
+    <t>deselect insurance</t>
+  </si>
+  <si>
+    <t>delete added bill</t>
+  </si>
+  <si>
+    <t>edit added bill</t>
+  </si>
+  <si>
+    <t>edit LRO Bill</t>
+  </si>
+  <si>
+    <t>delete LRO Bill</t>
+  </si>
+  <si>
+    <t>edit pharmacy bill</t>
+  </si>
+  <si>
+    <t>delete added pharmacy bill</t>
+  </si>
+  <si>
+    <t>edit surgey bill</t>
+  </si>
+  <si>
+    <t>delete surgery bill</t>
+  </si>
+  <si>
+    <t>clear selected bills</t>
+  </si>
+  <si>
+    <t>remark for op bill</t>
+  </si>
+  <si>
+    <t>remark for pharmacy bill</t>
+  </si>
+  <si>
+    <t>remarks for surgery bill</t>
+  </si>
+  <si>
+    <t>remarks for LRO Bills</t>
+  </si>
+  <si>
+    <t>summary print</t>
+  </si>
+  <si>
+    <t>add insurance after mark arrival</t>
   </si>
 </sst>
 </file>
@@ -114,7 +852,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -146,6 +884,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -434,15 +1177,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A29"/>
+  <dimension ref="A1:A277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
+      <selection activeCell="A277" sqref="A277"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="51.28515625" customWidth="1"/>
+    <col min="1" max="1" width="60.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -457,12 +1200,12 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -588,6 +1331,1246 @@
     <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -601,7 +2584,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -613,7 +2596,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
